--- a/patient_data/patient_69.xlsx
+++ b/patient_data/patient_69.xlsx
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1093,31 +1093,31 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>1</v>
       </c>
-      <c r="P9" t="n">
+      <c r="V9" t="n">
         <v>1</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="W9" t="n">
         <v>1</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1170,31 +1170,31 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>1</v>
       </c>
-      <c r="P10" t="n">
+      <c r="V10" t="n">
         <v>1</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="W10" t="n">
         <v>1</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1324,19 +1324,19 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1401,19 +1401,19 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -2097,10 +2097,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2174,10 +2174,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
